--- a/Data/Tóm tắt dữ liệu.xlsx
+++ b/Data/Tóm tắt dữ liệu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>Under sampling Neg</t>
   </si>
   <si>
-    <t>window size 21</t>
-  </si>
-  <si>
     <t>remove duplicate</t>
+  </si>
+  <si>
+    <t>window size 31</t>
   </si>
 </sst>
 </file>
@@ -415,22 +415,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.07421875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -474,7 +475,7 @@
         <v>4.2361111111111106E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -495,7 +496,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -512,7 +513,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -526,7 +527,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
@@ -537,9 +538,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <f>6747/2</f>
@@ -550,7 +551,7 @@
         <v>3373.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -577,7 +578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
@@ -590,7 +591,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11">
         <f>SUM(E9:E10)</f>
         <v>3066</v>
@@ -611,7 +612,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
